--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-detail.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="204">
   <si>
     <t>mesure</t>
   </si>
@@ -201,6 +201,18 @@
     <t>1164.0</t>
   </si>
   <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>1235.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>1347.0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -264,12 +276,18 @@
     <t>18844.0</t>
   </si>
   <si>
-    <t>22308.0</t>
+    <t>22314.0</t>
   </si>
   <si>
     <t>26238.0</t>
   </si>
   <si>
+    <t>30340.0</t>
+  </si>
+  <si>
+    <t>37245.0</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
@@ -321,12 +339,24 @@
     <t>6430.0</t>
   </si>
   <si>
-    <t>7430.0</t>
+    <t>7429.0</t>
   </si>
   <si>
     <t>8421.0</t>
   </si>
   <si>
+    <t>9706.0</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>11202.0</t>
+  </si>
+  <si>
+    <t>11968.0</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
@@ -390,12 +420,18 @@
     <t>10356.0</t>
   </si>
   <si>
-    <t>12274.0</t>
+    <t>12276.0</t>
   </si>
   <si>
     <t>13828.0</t>
   </si>
   <si>
+    <t>15461.0</t>
+  </si>
+  <si>
+    <t>18364.0</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
@@ -417,52 +453,61 @@
     <t>1704.0</t>
   </si>
   <si>
-    <t>5170.0</t>
-  </si>
-  <si>
-    <t>6381.0</t>
-  </si>
-  <si>
-    <t>10136.0</t>
-  </si>
-  <si>
-    <t>14723.0</t>
-  </si>
-  <si>
-    <t>18957.0</t>
-  </si>
-  <si>
-    <t>22607.0</t>
-  </si>
-  <si>
-    <t>24318.0</t>
-  </si>
-  <si>
-    <t>28250.0</t>
-  </si>
-  <si>
-    <t>30232.0</t>
-  </si>
-  <si>
-    <t>31867.0</t>
-  </si>
-  <si>
-    <t>33450.0</t>
-  </si>
-  <si>
-    <t>35940.0</t>
-  </si>
-  <si>
-    <t>38821.0</t>
-  </si>
-  <si>
-    <t>41577.0</t>
-  </si>
-  <si>
-    <t>45443.0</t>
-  </si>
-  <si>
-    <t>49133.0</t>
+    <t>4647.0</t>
+  </si>
+  <si>
+    <t>5726.0</t>
+  </si>
+  <si>
+    <t>8924.0</t>
+  </si>
+  <si>
+    <t>12818.0</t>
+  </si>
+  <si>
+    <t>16380.0</t>
+  </si>
+  <si>
+    <t>19459.0</t>
+  </si>
+  <si>
+    <t>20900.0</t>
+  </si>
+  <si>
+    <t>24104.0</t>
+  </si>
+  <si>
+    <t>25747.0</t>
+  </si>
+  <si>
+    <t>27086.0</t>
+  </si>
+  <si>
+    <t>28395.0</t>
+  </si>
+  <si>
+    <t>30495.0</t>
+  </si>
+  <si>
+    <t>32900.0</t>
+  </si>
+  <si>
+    <t>35228.0</t>
+  </si>
+  <si>
+    <t>45462.0</t>
+  </si>
+  <si>
+    <t>48672.0</t>
+  </si>
+  <si>
+    <t>54230.0</t>
+  </si>
+  <si>
+    <t>57903.0</t>
+  </si>
+  <si>
+    <t>61915.0</t>
   </si>
   <si>
     <t>76</t>
@@ -528,12 +573,18 @@
     <t>9113.0</t>
   </si>
   <si>
-    <t>10868.0</t>
+    <t>10871.0</t>
   </si>
   <si>
     <t>12416.0</t>
   </si>
   <si>
+    <t>13767.0</t>
+  </si>
+  <si>
+    <t>16202.0</t>
+  </si>
+  <si>
     <t>93</t>
   </si>
   <si>
@@ -586,6 +637,12 @@
   </si>
   <si>
     <t>2721.0</t>
+  </si>
+  <si>
+    <t>3084.0</t>
+  </si>
+  <si>
+    <t>3936.0</t>
   </si>
 </sst>
 </file>
@@ -941,7 +998,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -984,16 +1041,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1010,16 +1067,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1036,16 +1093,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1062,16 +1119,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1088,16 +1145,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -1114,16 +1171,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1140,16 +1197,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1166,16 +1223,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -1192,16 +1249,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -1218,16 +1275,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1244,16 +1301,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1270,16 +1327,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1296,16 +1353,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -1322,16 +1379,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1348,16 +1405,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1374,16 +1431,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1400,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -1426,16 +1483,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -1452,16 +1509,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -1478,16 +1535,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -1504,18 +1561,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1538,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1581,16 +1690,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1607,16 +1716,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1633,16 +1742,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1659,16 +1768,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1685,16 +1794,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -1711,16 +1820,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1737,16 +1846,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1763,16 +1872,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -1789,16 +1898,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -1815,16 +1924,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1841,16 +1950,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -1867,16 +1976,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1893,16 +2002,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -1919,16 +2028,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1945,16 +2054,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1971,16 +2080,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1997,16 +2106,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -2023,16 +2132,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -2049,16 +2158,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -2075,16 +2184,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -2101,18 +2210,96 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2135,7 +2322,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2178,16 +2365,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2204,16 +2391,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2230,16 +2417,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2256,16 +2443,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2282,16 +2469,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2308,16 +2495,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2334,16 +2521,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2360,16 +2547,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -2386,16 +2573,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -2412,16 +2599,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -2438,16 +2625,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -2464,16 +2651,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -2490,16 +2677,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -2516,16 +2703,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -2542,16 +2729,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -2568,16 +2755,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -2594,16 +2781,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -2620,16 +2807,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -2646,16 +2833,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -2672,16 +2859,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -2698,18 +2885,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2732,7 +2971,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2775,16 +3014,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2801,16 +3040,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2827,16 +3066,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2853,16 +3092,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2879,16 +3118,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2905,16 +3144,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -2931,16 +3170,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -2957,16 +3196,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -2983,16 +3222,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -3009,16 +3248,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -3035,16 +3274,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -3061,16 +3300,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -3087,16 +3326,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -3113,16 +3352,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -3139,16 +3378,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -3165,16 +3404,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -3191,18 +3430,70 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
       </c>
       <c r="G18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
         <v>184</v>
       </c>
-      <c r="H18" t="s">
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3237,7 +3528,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3812,6 +4103,58 @@
         <v>55</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3846,7 +4189,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3889,16 +4232,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3915,16 +4258,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3941,16 +4284,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3967,16 +4310,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3993,16 +4336,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -4019,16 +4362,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -4045,16 +4388,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -4071,16 +4414,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -4097,16 +4440,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -4123,16 +4466,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -4149,16 +4492,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -4175,16 +4518,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -4201,16 +4544,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -4227,16 +4570,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -4253,16 +4596,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -4279,16 +4622,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -4305,16 +4648,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -4331,16 +4674,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -4357,16 +4700,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -4383,16 +4726,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -4409,18 +4752,70 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4443,7 +4838,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4486,16 +4881,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4512,16 +4907,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4538,16 +4933,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4564,16 +4959,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4590,16 +4985,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -4616,16 +5011,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -4642,16 +5037,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -4668,16 +5063,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -4694,16 +5089,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -4720,16 +5115,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -4746,16 +5141,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -4772,16 +5167,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -4798,16 +5193,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -4824,16 +5219,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -4850,16 +5245,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -4876,16 +5271,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -4902,18 +5297,96 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
         <v>15</v>
       </c>
     </row>

--- a/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-detail.xlsx
+++ b/secteur-action-publique/jeunesse-culture-engagement/regions/barometre-resultats-jeunesse-culture-engagement-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="515">
   <si>
     <t>mesure</t>
   </si>
@@ -75,7 +75,7 @@
     <t>2019-02-28</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>0</t>
   </si>
   <si>
     <t>utilisateurs</t>
@@ -117,7 +117,7 @@
     <t>2020-02-29</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1</t>
   </si>
   <si>
     <t>2020-03-31</t>
@@ -165,43 +165,43 @@
     <t>2021-05-31</t>
   </si>
   <si>
-    <t>1079.0</t>
+    <t>1079</t>
   </si>
   <si>
     <t>2021-06-30</t>
   </si>
   <si>
-    <t>1458.0</t>
+    <t>1458</t>
   </si>
   <si>
     <t>2021-07-31</t>
   </si>
   <si>
-    <t>1662.0</t>
+    <t>1662</t>
   </si>
   <si>
     <t>2021-08-31</t>
   </si>
   <si>
-    <t>1779.0</t>
+    <t>1779</t>
   </si>
   <si>
     <t>2021-09-30</t>
   </si>
   <si>
-    <t>1874.0</t>
+    <t>1874</t>
   </si>
   <si>
     <t>2021-10-31</t>
   </si>
   <si>
-    <t>1929.0</t>
+    <t>1929</t>
   </si>
   <si>
     <t>2021-11-30</t>
   </si>
   <si>
-    <t>1995.0</t>
+    <t>1995</t>
   </si>
   <si>
     <t>Apprendre à nager et à circuler à vélo en toute sécurité</t>
@@ -216,19 +216,19 @@
     <t>attestations</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>278.0</t>
-  </si>
-  <si>
-    <t>304.0</t>
-  </si>
-  <si>
-    <t>466.0</t>
-  </si>
-  <si>
-    <t>548.0</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>548</t>
   </si>
   <si>
     <t>Nombre d'enfants ayant suivi un cycle d’Aisance Aquatique</t>
@@ -237,13 +237,13 @@
     <t>nb-cycle-aisance-aquatique</t>
   </si>
   <si>
-    <t>165.0</t>
+    <t>165</t>
   </si>
   <si>
     <t>enfants</t>
   </si>
   <si>
-    <t>2363.0</t>
+    <t>2363</t>
   </si>
   <si>
     <t>02</t>
@@ -252,37 +252,37 @@
     <t>Martinique</t>
   </si>
   <si>
-    <t>738.0</t>
-  </si>
-  <si>
-    <t>1157.0</t>
-  </si>
-  <si>
-    <t>1406.0</t>
-  </si>
-  <si>
-    <t>1497.0</t>
-  </si>
-  <si>
-    <t>1571.0</t>
-  </si>
-  <si>
-    <t>1615.0</t>
-  </si>
-  <si>
-    <t>1680.0</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>158.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>700.0</t>
+    <t>738</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>1571</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>700</t>
   </si>
   <si>
     <t>03</t>
@@ -291,100 +291,100 @@
     <t>Guyane</t>
   </si>
   <si>
-    <t>277.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>344.0</t>
-  </si>
-  <si>
-    <t>366.0</t>
-  </si>
-  <si>
-    <t>490.0</t>
-  </si>
-  <si>
-    <t>565.0</t>
-  </si>
-  <si>
-    <t>632.0</t>
-  </si>
-  <si>
-    <t>681.0</t>
-  </si>
-  <si>
-    <t>707.0</t>
-  </si>
-  <si>
-    <t>778.0</t>
-  </si>
-  <si>
-    <t>817.0</t>
-  </si>
-  <si>
-    <t>838.0</t>
-  </si>
-  <si>
-    <t>867.0</t>
-  </si>
-  <si>
-    <t>923.0</t>
-  </si>
-  <si>
-    <t>976.0</t>
-  </si>
-  <si>
-    <t>1023.0</t>
-  </si>
-  <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>1126.0</t>
-  </si>
-  <si>
-    <t>1164.0</t>
-  </si>
-  <si>
-    <t>1196.0</t>
-  </si>
-  <si>
-    <t>1234.0</t>
-  </si>
-  <si>
-    <t>1263.0</t>
-  </si>
-  <si>
-    <t>1308.0</t>
-  </si>
-  <si>
-    <t>1352.0</t>
-  </si>
-  <si>
-    <t>1564.0</t>
-  </si>
-  <si>
-    <t>1673.0</t>
-  </si>
-  <si>
-    <t>1768.0</t>
-  </si>
-  <si>
-    <t>1807.0</t>
-  </si>
-  <si>
-    <t>1846.0</t>
-  </si>
-  <si>
-    <t>1878.0</t>
-  </si>
-  <si>
-    <t>1909.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
+    <t>277</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1308</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>1673</t>
+  </si>
+  <si>
+    <t>1768</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>04</t>
@@ -393,55 +393,55 @@
     <t>La Réunion</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3739.0</t>
-  </si>
-  <si>
-    <t>5484.0</t>
-  </si>
-  <si>
-    <t>6978.0</t>
-  </si>
-  <si>
-    <t>7539.0</t>
-  </si>
-  <si>
-    <t>7964.0</t>
-  </si>
-  <si>
-    <t>8259.0</t>
-  </si>
-  <si>
-    <t>8664.0</t>
-  </si>
-  <si>
-    <t>2794.0</t>
-  </si>
-  <si>
-    <t>2800.0</t>
-  </si>
-  <si>
-    <t>2840.0</t>
-  </si>
-  <si>
-    <t>3108.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>841.0</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3739</t>
+  </si>
+  <si>
+    <t>5484</t>
+  </si>
+  <si>
+    <t>6978</t>
+  </si>
+  <si>
+    <t>7539</t>
+  </si>
+  <si>
+    <t>7964</t>
+  </si>
+  <si>
+    <t>8259</t>
+  </si>
+  <si>
+    <t>8664</t>
+  </si>
+  <si>
+    <t>2794</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>841</t>
   </si>
   <si>
     <t>06</t>
@@ -450,22 +450,22 @@
     <t>Mayotte</t>
   </si>
   <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>198.0</t>
-  </si>
-  <si>
-    <t>206.0</t>
-  </si>
-  <si>
-    <t>220.0</t>
-  </si>
-  <si>
-    <t>231.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
+    <t>182</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>11</t>
@@ -474,130 +474,130 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>1500.0</t>
-  </si>
-  <si>
-    <t>1502.0</t>
-  </si>
-  <si>
-    <t>1505.0</t>
-  </si>
-  <si>
-    <t>2183.0</t>
-  </si>
-  <si>
-    <t>2342.0</t>
-  </si>
-  <si>
-    <t>3041.0</t>
-  </si>
-  <si>
-    <t>4076.0</t>
-  </si>
-  <si>
-    <t>5688.0</t>
-  </si>
-  <si>
-    <t>6743.0</t>
-  </si>
-  <si>
-    <t>7359.0</t>
-  </si>
-  <si>
-    <t>8903.0</t>
-  </si>
-  <si>
-    <t>9853.0</t>
-  </si>
-  <si>
-    <t>10506.0</t>
-  </si>
-  <si>
-    <t>11267.0</t>
-  </si>
-  <si>
-    <t>13013.0</t>
-  </si>
-  <si>
-    <t>15988.0</t>
-  </si>
-  <si>
-    <t>18746.0</t>
-  </si>
-  <si>
-    <t>22140.0</t>
-  </si>
-  <si>
-    <t>26026.0</t>
-  </si>
-  <si>
-    <t>27793.0</t>
-  </si>
-  <si>
-    <t>29930.0</t>
-  </si>
-  <si>
-    <t>32750.0</t>
-  </si>
-  <si>
-    <t>34694.0</t>
-  </si>
-  <si>
-    <t>36612.0</t>
-  </si>
-  <si>
-    <t>38861.0</t>
-  </si>
-  <si>
-    <t>118555.0</t>
-  </si>
-  <si>
-    <t>140717.0</t>
-  </si>
-  <si>
-    <t>150442.0</t>
-  </si>
-  <si>
-    <t>158175.0</t>
-  </si>
-  <si>
-    <t>166414.0</t>
-  </si>
-  <si>
-    <t>172872.0</t>
-  </si>
-  <si>
-    <t>182381.0</t>
-  </si>
-  <si>
-    <t>1381.0</t>
-  </si>
-  <si>
-    <t>2023.0</t>
-  </si>
-  <si>
-    <t>2217.0</t>
-  </si>
-  <si>
-    <t>2230.0</t>
-  </si>
-  <si>
-    <t>2248.0</t>
-  </si>
-  <si>
-    <t>2586.0</t>
-  </si>
-  <si>
-    <t>5837.0</t>
-  </si>
-  <si>
-    <t>6916.0</t>
-  </si>
-  <si>
-    <t>1802.0</t>
-  </si>
-  <si>
-    <t>4664.0</t>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>2183</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>3041</t>
+  </si>
+  <si>
+    <t>4076</t>
+  </si>
+  <si>
+    <t>5688</t>
+  </si>
+  <si>
+    <t>6743</t>
+  </si>
+  <si>
+    <t>7359</t>
+  </si>
+  <si>
+    <t>8903</t>
+  </si>
+  <si>
+    <t>9853</t>
+  </si>
+  <si>
+    <t>10506</t>
+  </si>
+  <si>
+    <t>11267</t>
+  </si>
+  <si>
+    <t>13013</t>
+  </si>
+  <si>
+    <t>15988</t>
+  </si>
+  <si>
+    <t>18746</t>
+  </si>
+  <si>
+    <t>22140</t>
+  </si>
+  <si>
+    <t>26026</t>
+  </si>
+  <si>
+    <t>27793</t>
+  </si>
+  <si>
+    <t>29930</t>
+  </si>
+  <si>
+    <t>32750</t>
+  </si>
+  <si>
+    <t>34694</t>
+  </si>
+  <si>
+    <t>36612</t>
+  </si>
+  <si>
+    <t>38861</t>
+  </si>
+  <si>
+    <t>118555</t>
+  </si>
+  <si>
+    <t>140717</t>
+  </si>
+  <si>
+    <t>150442</t>
+  </si>
+  <si>
+    <t>158175</t>
+  </si>
+  <si>
+    <t>166414</t>
+  </si>
+  <si>
+    <t>172872</t>
+  </si>
+  <si>
+    <t>182381</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2248</t>
+  </si>
+  <si>
+    <t>2586</t>
+  </si>
+  <si>
+    <t>5837</t>
+  </si>
+  <si>
+    <t>6916</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>4664</t>
   </si>
   <si>
     <t>24</t>
@@ -606,52 +606,52 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>15516.0</t>
-  </si>
-  <si>
-    <t>20168.0</t>
-  </si>
-  <si>
-    <t>22121.0</t>
-  </si>
-  <si>
-    <t>23518.0</t>
-  </si>
-  <si>
-    <t>24865.0</t>
-  </si>
-  <si>
-    <t>25859.0</t>
-  </si>
-  <si>
-    <t>27410.0</t>
-  </si>
-  <si>
-    <t>161.0</t>
-  </si>
-  <si>
-    <t>427.0</t>
-  </si>
-  <si>
-    <t>485.0</t>
-  </si>
-  <si>
-    <t>526.0</t>
-  </si>
-  <si>
-    <t>593.0</t>
-  </si>
-  <si>
-    <t>3592.0</t>
-  </si>
-  <si>
-    <t>5001.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>463.0</t>
+    <t>15516</t>
+  </si>
+  <si>
+    <t>20168</t>
+  </si>
+  <si>
+    <t>22121</t>
+  </si>
+  <si>
+    <t>23518</t>
+  </si>
+  <si>
+    <t>24865</t>
+  </si>
+  <si>
+    <t>25859</t>
+  </si>
+  <si>
+    <t>27410</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>3592</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>463</t>
   </si>
   <si>
     <t>27</t>
@@ -660,118 +660,118 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>571.0</t>
-  </si>
-  <si>
-    <t>682.0</t>
-  </si>
-  <si>
-    <t>1116.0</t>
-  </si>
-  <si>
-    <t>1499.0</t>
-  </si>
-  <si>
-    <t>1957.0</t>
-  </si>
-  <si>
-    <t>2498.0</t>
-  </si>
-  <si>
-    <t>2864.0</t>
-  </si>
-  <si>
-    <t>3512.0</t>
-  </si>
-  <si>
-    <t>3904.0</t>
-  </si>
-  <si>
-    <t>4186.0</t>
-  </si>
-  <si>
-    <t>4494.0</t>
-  </si>
-  <si>
-    <t>5035.0</t>
-  </si>
-  <si>
-    <t>5767.0</t>
-  </si>
-  <si>
-    <t>6423.0</t>
-  </si>
-  <si>
-    <t>7407.0</t>
-  </si>
-  <si>
-    <t>8394.0</t>
-  </si>
-  <si>
-    <t>8910.0</t>
-  </si>
-  <si>
-    <t>9656.0</t>
-  </si>
-  <si>
-    <t>10461.0</t>
-  </si>
-  <si>
-    <t>11139.0</t>
-  </si>
-  <si>
-    <t>11887.0</t>
-  </si>
-  <si>
-    <t>12631.0</t>
-  </si>
-  <si>
-    <t>24612.0</t>
-  </si>
-  <si>
-    <t>28783.0</t>
-  </si>
-  <si>
-    <t>30803.0</t>
-  </si>
-  <si>
-    <t>32415.0</t>
-  </si>
-  <si>
-    <t>33943.0</t>
-  </si>
-  <si>
-    <t>35008.0</t>
-  </si>
-  <si>
-    <t>36691.0</t>
-  </si>
-  <si>
-    <t>328.0</t>
-  </si>
-  <si>
-    <t>438.0</t>
-  </si>
-  <si>
-    <t>464.0</t>
-  </si>
-  <si>
-    <t>467.0</t>
-  </si>
-  <si>
-    <t>560.0</t>
-  </si>
-  <si>
-    <t>2601.0</t>
-  </si>
-  <si>
-    <t>3045.0</t>
-  </si>
-  <si>
-    <t>377.0</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>2498</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>3512</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>4186</t>
+  </si>
+  <si>
+    <t>4494</t>
+  </si>
+  <si>
+    <t>5035</t>
+  </si>
+  <si>
+    <t>5767</t>
+  </si>
+  <si>
+    <t>6423</t>
+  </si>
+  <si>
+    <t>7407</t>
+  </si>
+  <si>
+    <t>8394</t>
+  </si>
+  <si>
+    <t>8910</t>
+  </si>
+  <si>
+    <t>9656</t>
+  </si>
+  <si>
+    <t>10461</t>
+  </si>
+  <si>
+    <t>11139</t>
+  </si>
+  <si>
+    <t>11887</t>
+  </si>
+  <si>
+    <t>12631</t>
+  </si>
+  <si>
+    <t>24612</t>
+  </si>
+  <si>
+    <t>28783</t>
+  </si>
+  <si>
+    <t>30803</t>
+  </si>
+  <si>
+    <t>32415</t>
+  </si>
+  <si>
+    <t>33943</t>
+  </si>
+  <si>
+    <t>35008</t>
+  </si>
+  <si>
+    <t>36691</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>2601</t>
+  </si>
+  <si>
+    <t>3045</t>
+  </si>
+  <si>
+    <t>377</t>
   </si>
   <si>
     <t>28</t>
@@ -780,52 +780,49 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>19688.0</t>
-  </si>
-  <si>
-    <t>25647.0</t>
-  </si>
-  <si>
-    <t>28240.0</t>
-  </si>
-  <si>
-    <t>30215.0</t>
-  </si>
-  <si>
-    <t>31934.0</t>
-  </si>
-  <si>
-    <t>33135.0</t>
-  </si>
-  <si>
-    <t>35057.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>430.0</t>
-  </si>
-  <si>
-    <t>444.0</t>
-  </si>
-  <si>
-    <t>538.0</t>
-  </si>
-  <si>
-    <t>1572.0</t>
-  </si>
-  <si>
-    <t>3430.0</t>
-  </si>
-  <si>
-    <t>397.0</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>19688</t>
+  </si>
+  <si>
+    <t>25647</t>
+  </si>
+  <si>
+    <t>28240</t>
+  </si>
+  <si>
+    <t>30215</t>
+  </si>
+  <si>
+    <t>31934</t>
+  </si>
+  <si>
+    <t>33135</t>
+  </si>
+  <si>
+    <t>35057</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>397</t>
   </si>
   <si>
     <t>32</t>
@@ -834,52 +831,52 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>46530.0</t>
-  </si>
-  <si>
-    <t>56958.0</t>
-  </si>
-  <si>
-    <t>61700.0</t>
-  </si>
-  <si>
-    <t>65502.0</t>
-  </si>
-  <si>
-    <t>68874.0</t>
-  </si>
-  <si>
-    <t>71546.0</t>
-  </si>
-  <si>
-    <t>75702.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>1132.0</t>
-  </si>
-  <si>
-    <t>1162.0</t>
-  </si>
-  <si>
-    <t>1173.0</t>
-  </si>
-  <si>
-    <t>1204.0</t>
-  </si>
-  <si>
-    <t>1794.0</t>
-  </si>
-  <si>
-    <t>3953.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>606.0</t>
+    <t>46530</t>
+  </si>
+  <si>
+    <t>56958</t>
+  </si>
+  <si>
+    <t>61700</t>
+  </si>
+  <si>
+    <t>65502</t>
+  </si>
+  <si>
+    <t>68874</t>
+  </si>
+  <si>
+    <t>71546</t>
+  </si>
+  <si>
+    <t>75702</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1794</t>
+  </si>
+  <si>
+    <t>3953</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>606</t>
   </si>
   <si>
     <t>44</t>
@@ -888,127 +885,127 @@
     <t>Grand Est</t>
   </si>
   <si>
-    <t>1622.0</t>
-  </si>
-  <si>
-    <t>1624.0</t>
-  </si>
-  <si>
-    <t>1625.0</t>
-  </si>
-  <si>
-    <t>1626.0</t>
-  </si>
-  <si>
-    <t>2208.0</t>
-  </si>
-  <si>
-    <t>2335.0</t>
-  </si>
-  <si>
-    <t>3051.0</t>
-  </si>
-  <si>
-    <t>3992.0</t>
-  </si>
-  <si>
-    <t>4854.0</t>
-  </si>
-  <si>
-    <t>5503.0</t>
-  </si>
-  <si>
-    <t>5914.0</t>
-  </si>
-  <si>
-    <t>6838.0</t>
-  </si>
-  <si>
-    <t>7374.0</t>
-  </si>
-  <si>
-    <t>7684.0</t>
-  </si>
-  <si>
-    <t>7955.0</t>
-  </si>
-  <si>
-    <t>8576.0</t>
-  </si>
-  <si>
-    <t>9434.0</t>
-  </si>
-  <si>
-    <t>10323.0</t>
-  </si>
-  <si>
-    <t>12229.0</t>
-  </si>
-  <si>
-    <t>13773.0</t>
-  </si>
-  <si>
-    <t>14499.0</t>
-  </si>
-  <si>
-    <t>15386.0</t>
-  </si>
-  <si>
-    <t>16395.0</t>
-  </si>
-  <si>
-    <t>17242.0</t>
-  </si>
-  <si>
-    <t>18206.0</t>
-  </si>
-  <si>
-    <t>19201.0</t>
-  </si>
-  <si>
-    <t>47088.0</t>
-  </si>
-  <si>
-    <t>55104.0</t>
-  </si>
-  <si>
-    <t>59043.0</t>
-  </si>
-  <si>
-    <t>62203.0</t>
-  </si>
-  <si>
-    <t>65325.0</t>
-  </si>
-  <si>
-    <t>67450.0</t>
-  </si>
-  <si>
-    <t>70729.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>1337.0</t>
-  </si>
-  <si>
-    <t>1361.0</t>
-  </si>
-  <si>
-    <t>1456.0</t>
-  </si>
-  <si>
-    <t>3658.0</t>
-  </si>
-  <si>
-    <t>4821.0</t>
-  </si>
-  <si>
-    <t>886.0</t>
-  </si>
-  <si>
-    <t>1100.0</t>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>1626</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>3051</t>
+  </si>
+  <si>
+    <t>3992</t>
+  </si>
+  <si>
+    <t>4854</t>
+  </si>
+  <si>
+    <t>5503</t>
+  </si>
+  <si>
+    <t>5914</t>
+  </si>
+  <si>
+    <t>6838</t>
+  </si>
+  <si>
+    <t>7374</t>
+  </si>
+  <si>
+    <t>7684</t>
+  </si>
+  <si>
+    <t>7955</t>
+  </si>
+  <si>
+    <t>8576</t>
+  </si>
+  <si>
+    <t>9434</t>
+  </si>
+  <si>
+    <t>10323</t>
+  </si>
+  <si>
+    <t>12229</t>
+  </si>
+  <si>
+    <t>13773</t>
+  </si>
+  <si>
+    <t>14499</t>
+  </si>
+  <si>
+    <t>15386</t>
+  </si>
+  <si>
+    <t>16395</t>
+  </si>
+  <si>
+    <t>17242</t>
+  </si>
+  <si>
+    <t>18206</t>
+  </si>
+  <si>
+    <t>19201</t>
+  </si>
+  <si>
+    <t>47088</t>
+  </si>
+  <si>
+    <t>55104</t>
+  </si>
+  <si>
+    <t>59043</t>
+  </si>
+  <si>
+    <t>62203</t>
+  </si>
+  <si>
+    <t>65325</t>
+  </si>
+  <si>
+    <t>67450</t>
+  </si>
+  <si>
+    <t>70729</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>3658</t>
+  </si>
+  <si>
+    <t>4821</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>1100</t>
   </si>
   <si>
     <t>52</t>
@@ -1017,52 +1014,52 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>20846.0</t>
-  </si>
-  <si>
-    <t>28664.0</t>
-  </si>
-  <si>
-    <t>31880.0</t>
-  </si>
-  <si>
-    <t>34366.0</t>
-  </si>
-  <si>
-    <t>37097.0</t>
-  </si>
-  <si>
-    <t>38803.0</t>
-  </si>
-  <si>
-    <t>41560.0</t>
-  </si>
-  <si>
-    <t>482.0</t>
-  </si>
-  <si>
-    <t>553.0</t>
-  </si>
-  <si>
-    <t>607.0</t>
-  </si>
-  <si>
-    <t>1950.0</t>
-  </si>
-  <si>
-    <t>2838.0</t>
-  </si>
-  <si>
-    <t>809.0</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20846</t>
+  </si>
+  <si>
+    <t>28664</t>
+  </si>
+  <si>
+    <t>31880</t>
+  </si>
+  <si>
+    <t>34366</t>
+  </si>
+  <si>
+    <t>37097</t>
+  </si>
+  <si>
+    <t>38803</t>
+  </si>
+  <si>
+    <t>41560</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>2838</t>
+  </si>
+  <si>
+    <t>809</t>
   </si>
   <si>
     <t>53</t>
@@ -1071,127 +1068,127 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>1647.0</t>
-  </si>
-  <si>
-    <t>1649.0</t>
-  </si>
-  <si>
-    <t>1653.0</t>
-  </si>
-  <si>
-    <t>1654.0</t>
-  </si>
-  <si>
-    <t>1669.0</t>
-  </si>
-  <si>
-    <t>5113.0</t>
-  </si>
-  <si>
-    <t>6317.0</t>
-  </si>
-  <si>
-    <t>10071.0</t>
-  </si>
-  <si>
-    <t>14657.0</t>
-  </si>
-  <si>
-    <t>18884.0</t>
-  </si>
-  <si>
-    <t>22524.0</t>
-  </si>
-  <si>
-    <t>24235.0</t>
-  </si>
-  <si>
-    <t>28170.0</t>
-  </si>
-  <si>
-    <t>30147.0</t>
-  </si>
-  <si>
-    <t>31780.0</t>
-  </si>
-  <si>
-    <t>33361.0</t>
-  </si>
-  <si>
-    <t>35849.0</t>
-  </si>
-  <si>
-    <t>38723.0</t>
-  </si>
-  <si>
-    <t>41475.0</t>
-  </si>
-  <si>
-    <t>45325.0</t>
-  </si>
-  <si>
-    <t>49005.0</t>
-  </si>
-  <si>
-    <t>51247.0</t>
-  </si>
-  <si>
-    <t>54083.0</t>
-  </si>
-  <si>
-    <t>56929.0</t>
-  </si>
-  <si>
-    <t>59002.0</t>
-  </si>
-  <si>
-    <t>61739.0</t>
-  </si>
-  <si>
-    <t>64300.0</t>
-  </si>
-  <si>
-    <t>72198.0</t>
-  </si>
-  <si>
-    <t>76500.0</t>
-  </si>
-  <si>
-    <t>79162.0</t>
-  </si>
-  <si>
-    <t>81616.0</t>
-  </si>
-  <si>
-    <t>84046.0</t>
-  </si>
-  <si>
-    <t>85759.0</t>
-  </si>
-  <si>
-    <t>89565.0</t>
-  </si>
-  <si>
-    <t>205.0</t>
-  </si>
-  <si>
-    <t>469.0</t>
-  </si>
-  <si>
-    <t>494.0</t>
-  </si>
-  <si>
-    <t>544.0</t>
-  </si>
-  <si>
-    <t>2715.0</t>
-  </si>
-  <si>
-    <t>3311.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1649</t>
+  </si>
+  <si>
+    <t>1653</t>
+  </si>
+  <si>
+    <t>1654</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>6317</t>
+  </si>
+  <si>
+    <t>10071</t>
+  </si>
+  <si>
+    <t>14657</t>
+  </si>
+  <si>
+    <t>18884</t>
+  </si>
+  <si>
+    <t>22524</t>
+  </si>
+  <si>
+    <t>24235</t>
+  </si>
+  <si>
+    <t>28170</t>
+  </si>
+  <si>
+    <t>30147</t>
+  </si>
+  <si>
+    <t>31780</t>
+  </si>
+  <si>
+    <t>33361</t>
+  </si>
+  <si>
+    <t>35849</t>
+  </si>
+  <si>
+    <t>38723</t>
+  </si>
+  <si>
+    <t>41475</t>
+  </si>
+  <si>
+    <t>45325</t>
+  </si>
+  <si>
+    <t>49005</t>
+  </si>
+  <si>
+    <t>51247</t>
+  </si>
+  <si>
+    <t>54083</t>
+  </si>
+  <si>
+    <t>56929</t>
+  </si>
+  <si>
+    <t>59002</t>
+  </si>
+  <si>
+    <t>61739</t>
+  </si>
+  <si>
+    <t>64300</t>
+  </si>
+  <si>
+    <t>72198</t>
+  </si>
+  <si>
+    <t>76500</t>
+  </si>
+  <si>
+    <t>79162</t>
+  </si>
+  <si>
+    <t>81616</t>
+  </si>
+  <si>
+    <t>84046</t>
+  </si>
+  <si>
+    <t>85759</t>
+  </si>
+  <si>
+    <t>89565</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>2715</t>
+  </si>
+  <si>
+    <t>3311</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>75</t>
@@ -1200,55 +1197,55 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>33833.0</t>
-  </si>
-  <si>
-    <t>44211.0</t>
-  </si>
-  <si>
-    <t>48531.0</t>
-  </si>
-  <si>
-    <t>51801.0</t>
-  </si>
-  <si>
-    <t>55154.0</t>
-  </si>
-  <si>
-    <t>57435.0</t>
-  </si>
-  <si>
-    <t>61119.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>1544.0</t>
-  </si>
-  <si>
-    <t>1609.0</t>
-  </si>
-  <si>
-    <t>1618.0</t>
-  </si>
-  <si>
-    <t>1707.0</t>
-  </si>
-  <si>
-    <t>1960.0</t>
-  </si>
-  <si>
-    <t>8409.0</t>
-  </si>
-  <si>
-    <t>9927.0</t>
-  </si>
-  <si>
-    <t>449.0</t>
-  </si>
-  <si>
-    <t>881.0</t>
+    <t>33833</t>
+  </si>
+  <si>
+    <t>44211</t>
+  </si>
+  <si>
+    <t>48531</t>
+  </si>
+  <si>
+    <t>51801</t>
+  </si>
+  <si>
+    <t>55154</t>
+  </si>
+  <si>
+    <t>57435</t>
+  </si>
+  <si>
+    <t>61119</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>8409</t>
+  </si>
+  <si>
+    <t>9927</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>881</t>
   </si>
   <si>
     <t>76</t>
@@ -1257,133 +1254,133 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>1343.0</t>
-  </si>
-  <si>
-    <t>1348.0</t>
-  </si>
-  <si>
-    <t>1349.0</t>
-  </si>
-  <si>
-    <t>1356.0</t>
-  </si>
-  <si>
-    <t>1848.0</t>
-  </si>
-  <si>
-    <t>1973.0</t>
-  </si>
-  <si>
-    <t>2510.0</t>
-  </si>
-  <si>
-    <t>3044.0</t>
-  </si>
-  <si>
-    <t>3670.0</t>
-  </si>
-  <si>
-    <t>4295.0</t>
-  </si>
-  <si>
-    <t>4705.0</t>
-  </si>
-  <si>
-    <t>5645.0</t>
-  </si>
-  <si>
-    <t>6082.0</t>
-  </si>
-  <si>
-    <t>6321.0</t>
-  </si>
-  <si>
-    <t>6605.0</t>
-  </si>
-  <si>
-    <t>7191.0</t>
-  </si>
-  <si>
-    <t>8058.0</t>
-  </si>
-  <si>
-    <t>9087.0</t>
-  </si>
-  <si>
-    <t>10838.0</t>
-  </si>
-  <si>
-    <t>12385.0</t>
-  </si>
-  <si>
-    <t>13016.0</t>
-  </si>
-  <si>
-    <t>13730.0</t>
-  </si>
-  <si>
-    <t>14721.0</t>
-  </si>
-  <si>
-    <t>15396.0</t>
-  </si>
-  <si>
-    <t>16160.0</t>
-  </si>
-  <si>
-    <t>16890.0</t>
-  </si>
-  <si>
-    <t>45407.0</t>
-  </si>
-  <si>
-    <t>55173.0</t>
-  </si>
-  <si>
-    <t>59600.0</t>
-  </si>
-  <si>
-    <t>63195.0</t>
-  </si>
-  <si>
-    <t>67073.0</t>
-  </si>
-  <si>
-    <t>69586.0</t>
-  </si>
-  <si>
-    <t>73094.0</t>
-  </si>
-  <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>760.0</t>
-  </si>
-  <si>
-    <t>835.0</t>
-  </si>
-  <si>
-    <t>947.0</t>
-  </si>
-  <si>
-    <t>957.0</t>
-  </si>
-  <si>
-    <t>1655.0</t>
-  </si>
-  <si>
-    <t>3602.0</t>
-  </si>
-  <si>
-    <t>5676.0</t>
-  </si>
-  <si>
-    <t>1159.0</t>
-  </si>
-  <si>
-    <t>1612.0</t>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>1348</t>
+  </si>
+  <si>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>3670</t>
+  </si>
+  <si>
+    <t>4295</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>5645</t>
+  </si>
+  <si>
+    <t>6082</t>
+  </si>
+  <si>
+    <t>6321</t>
+  </si>
+  <si>
+    <t>6605</t>
+  </si>
+  <si>
+    <t>7191</t>
+  </si>
+  <si>
+    <t>8058</t>
+  </si>
+  <si>
+    <t>9087</t>
+  </si>
+  <si>
+    <t>10838</t>
+  </si>
+  <si>
+    <t>12385</t>
+  </si>
+  <si>
+    <t>13016</t>
+  </si>
+  <si>
+    <t>13730</t>
+  </si>
+  <si>
+    <t>14721</t>
+  </si>
+  <si>
+    <t>15396</t>
+  </si>
+  <si>
+    <t>16160</t>
+  </si>
+  <si>
+    <t>16890</t>
+  </si>
+  <si>
+    <t>45407</t>
+  </si>
+  <si>
+    <t>55173</t>
+  </si>
+  <si>
+    <t>59600</t>
+  </si>
+  <si>
+    <t>63195</t>
+  </si>
+  <si>
+    <t>67073</t>
+  </si>
+  <si>
+    <t>69586</t>
+  </si>
+  <si>
+    <t>73094</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>3602</t>
+  </si>
+  <si>
+    <t>5676</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1612</t>
   </si>
   <si>
     <t>84</t>
@@ -1392,55 +1389,55 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>44137.0</t>
-  </si>
-  <si>
-    <t>59709.0</t>
-  </si>
-  <si>
-    <t>65965.0</t>
-  </si>
-  <si>
-    <t>70889.0</t>
-  </si>
-  <si>
-    <t>75643.0</t>
-  </si>
-  <si>
-    <t>78828.0</t>
-  </si>
-  <si>
-    <t>83928.0</t>
-  </si>
-  <si>
-    <t>1156.0</t>
-  </si>
-  <si>
-    <t>1702.0</t>
-  </si>
-  <si>
-    <t>1727.0</t>
-  </si>
-  <si>
-    <t>1732.0</t>
-  </si>
-  <si>
-    <t>2040.0</t>
-  </si>
-  <si>
-    <t>9244.0</t>
-  </si>
-  <si>
-    <t>11916.0</t>
-  </si>
-  <si>
-    <t>1488.0</t>
-  </si>
-  <si>
-    <t>2310.0</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>44137</t>
+  </si>
+  <si>
+    <t>59709</t>
+  </si>
+  <si>
+    <t>65965</t>
+  </si>
+  <si>
+    <t>70889</t>
+  </si>
+  <si>
+    <t>75643</t>
+  </si>
+  <si>
+    <t>78828</t>
+  </si>
+  <si>
+    <t>83928</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>1732</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>9244</t>
+  </si>
+  <si>
+    <t>11916</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>2310</t>
   </si>
   <si>
     <t>93</t>
@@ -1449,103 +1446,103 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>245.0</t>
-  </si>
-  <si>
-    <t>310.0</t>
-  </si>
-  <si>
-    <t>616.0</t>
-  </si>
-  <si>
-    <t>742.0</t>
-  </si>
-  <si>
-    <t>830.0</t>
-  </si>
-  <si>
-    <t>904.0</t>
-  </si>
-  <si>
-    <t>1124.0</t>
-  </si>
-  <si>
-    <t>1311.0</t>
-  </si>
-  <si>
-    <t>1382.0</t>
-  </si>
-  <si>
-    <t>1567.0</t>
-  </si>
-  <si>
-    <t>1843.0</t>
-  </si>
-  <si>
-    <t>2111.0</t>
-  </si>
-  <si>
-    <t>2421.0</t>
-  </si>
-  <si>
-    <t>2729.0</t>
-  </si>
-  <si>
-    <t>2886.0</t>
-  </si>
-  <si>
-    <t>3087.0</t>
-  </si>
-  <si>
-    <t>3413.0</t>
-  </si>
-  <si>
-    <t>3650.0</t>
-  </si>
-  <si>
-    <t>3935.0</t>
-  </si>
-  <si>
-    <t>4282.0</t>
-  </si>
-  <si>
-    <t>30447.0</t>
-  </si>
-  <si>
-    <t>39053.0</t>
-  </si>
-  <si>
-    <t>42654.0</t>
-  </si>
-  <si>
-    <t>45588.0</t>
-  </si>
-  <si>
-    <t>48621.0</t>
-  </si>
-  <si>
-    <t>50594.0</t>
-  </si>
-  <si>
-    <t>53173.0</t>
-  </si>
-  <si>
-    <t>378.0</t>
-  </si>
-  <si>
-    <t>425.0</t>
-  </si>
-  <si>
-    <t>552.0</t>
-  </si>
-  <si>
-    <t>1923.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>417.0</t>
+    <t>245</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>616</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1311</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>1567</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2729</t>
+  </si>
+  <si>
+    <t>2886</t>
+  </si>
+  <si>
+    <t>3087</t>
+  </si>
+  <si>
+    <t>3413</t>
+  </si>
+  <si>
+    <t>3650</t>
+  </si>
+  <si>
+    <t>3935</t>
+  </si>
+  <si>
+    <t>4282</t>
+  </si>
+  <si>
+    <t>30447</t>
+  </si>
+  <si>
+    <t>39053</t>
+  </si>
+  <si>
+    <t>42654</t>
+  </si>
+  <si>
+    <t>45588</t>
+  </si>
+  <si>
+    <t>48621</t>
+  </si>
+  <si>
+    <t>50594</t>
+  </si>
+  <si>
+    <t>53173</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>417</t>
   </si>
   <si>
     <t>94</t>
@@ -1554,31 +1551,31 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>716.0</t>
-  </si>
-  <si>
-    <t>983.0</t>
-  </si>
-  <si>
-    <t>1088.0</t>
-  </si>
-  <si>
-    <t>1163.0</t>
-  </si>
-  <si>
-    <t>1218.0</t>
-  </si>
-  <si>
-    <t>1269.0</t>
-  </si>
-  <si>
-    <t>1324.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>148.0</t>
+    <t>716</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
 </sst>
 </file>
@@ -3162,10 +3159,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
         <v>265</v>
-      </c>
-      <c r="E2" t="s">
-        <v>266</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3188,10 +3185,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" t="s">
         <v>265</v>
-      </c>
-      <c r="E3" t="s">
-        <v>266</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -3214,10 +3211,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" t="s">
         <v>265</v>
-      </c>
-      <c r="E4" t="s">
-        <v>266</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -3240,10 +3237,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" t="s">
         <v>265</v>
-      </c>
-      <c r="E5" t="s">
-        <v>266</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -3266,10 +3263,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" t="s">
         <v>265</v>
-      </c>
-      <c r="E6" t="s">
-        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -3292,10 +3289,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" t="s">
         <v>265</v>
-      </c>
-      <c r="E7" t="s">
-        <v>266</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -3318,10 +3315,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" t="s">
         <v>265</v>
-      </c>
-      <c r="E8" t="s">
-        <v>266</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -3344,10 +3341,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" t="s">
         <v>265</v>
-      </c>
-      <c r="E9" t="s">
-        <v>266</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -3370,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
         <v>265</v>
-      </c>
-      <c r="E10" t="s">
-        <v>266</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -3396,10 +3393,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" t="s">
         <v>265</v>
-      </c>
-      <c r="E11" t="s">
-        <v>266</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -3422,10 +3419,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" t="s">
         <v>265</v>
-      </c>
-      <c r="E12" t="s">
-        <v>266</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3448,10 +3445,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
         <v>265</v>
-      </c>
-      <c r="E13" t="s">
-        <v>266</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -3474,10 +3471,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" t="s">
         <v>265</v>
-      </c>
-      <c r="E14" t="s">
-        <v>266</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -3500,10 +3497,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" t="s">
         <v>265</v>
-      </c>
-      <c r="E15" t="s">
-        <v>266</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -3526,10 +3523,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" t="s">
         <v>265</v>
-      </c>
-      <c r="E16" t="s">
-        <v>266</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -3552,10 +3549,10 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" t="s">
         <v>265</v>
-      </c>
-      <c r="E17" t="s">
-        <v>266</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -3578,10 +3575,10 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" t="s">
         <v>265</v>
-      </c>
-      <c r="E18" t="s">
-        <v>266</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -3604,10 +3601,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" t="s">
         <v>265</v>
-      </c>
-      <c r="E19" t="s">
-        <v>266</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -3630,10 +3627,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" t="s">
         <v>265</v>
-      </c>
-      <c r="E20" t="s">
-        <v>266</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -3656,10 +3653,10 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" t="s">
         <v>265</v>
-      </c>
-      <c r="E21" t="s">
-        <v>266</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -3682,10 +3679,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" t="s">
         <v>265</v>
-      </c>
-      <c r="E22" t="s">
-        <v>266</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -3708,10 +3705,10 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" t="s">
         <v>265</v>
-      </c>
-      <c r="E23" t="s">
-        <v>266</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -3734,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" t="s">
         <v>265</v>
-      </c>
-      <c r="E24" t="s">
-        <v>266</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -3760,10 +3757,10 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" t="s">
         <v>265</v>
-      </c>
-      <c r="E25" t="s">
-        <v>266</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -3786,10 +3783,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E26" t="s">
         <v>265</v>
-      </c>
-      <c r="E26" t="s">
-        <v>266</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -3812,10 +3809,10 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" t="s">
         <v>265</v>
-      </c>
-      <c r="E27" t="s">
-        <v>266</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -3838,10 +3835,10 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" t="s">
         <v>265</v>
-      </c>
-      <c r="E28" t="s">
-        <v>266</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -3864,16 +3861,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" t="s">
         <v>265</v>
-      </c>
-      <c r="E29" t="s">
-        <v>266</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -3890,16 +3887,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" t="s">
         <v>265</v>
-      </c>
-      <c r="E30" t="s">
-        <v>266</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -3916,16 +3913,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" t="s">
         <v>265</v>
-      </c>
-      <c r="E31" t="s">
-        <v>266</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -3942,16 +3939,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" t="s">
         <v>265</v>
-      </c>
-      <c r="E32" t="s">
-        <v>266</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -3968,16 +3965,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E33" t="s">
         <v>265</v>
-      </c>
-      <c r="E33" t="s">
-        <v>266</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -3994,16 +3991,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" t="s">
         <v>265</v>
-      </c>
-      <c r="E34" t="s">
-        <v>266</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -4020,16 +4017,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" t="s">
         <v>265</v>
-      </c>
-      <c r="E35" t="s">
-        <v>266</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -4046,10 +4043,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" t="s">
         <v>265</v>
-      </c>
-      <c r="E36" t="s">
-        <v>266</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -4072,16 +4069,16 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" t="s">
         <v>265</v>
-      </c>
-      <c r="E37" t="s">
-        <v>266</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -4098,16 +4095,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" t="s">
         <v>265</v>
-      </c>
-      <c r="E38" t="s">
-        <v>266</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -4124,16 +4121,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" t="s">
         <v>265</v>
-      </c>
-      <c r="E39" t="s">
-        <v>266</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -4150,16 +4147,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" t="s">
         <v>265</v>
-      </c>
-      <c r="E40" t="s">
-        <v>266</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -4176,16 +4173,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" t="s">
         <v>265</v>
-      </c>
-      <c r="E41" t="s">
-        <v>266</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -4202,16 +4199,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" t="s">
         <v>265</v>
-      </c>
-      <c r="E42" t="s">
-        <v>266</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -4228,10 +4225,10 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" t="s">
         <v>265</v>
-      </c>
-      <c r="E43" t="s">
-        <v>266</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -4254,16 +4251,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" t="s">
         <v>265</v>
-      </c>
-      <c r="E44" t="s">
-        <v>266</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -4280,16 +4277,16 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" t="s">
         <v>265</v>
-      </c>
-      <c r="E45" t="s">
-        <v>266</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
         <v>69</v>
@@ -4306,16 +4303,16 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" t="s">
         <v>265</v>
-      </c>
-      <c r="E46" t="s">
-        <v>266</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
@@ -4371,16 +4368,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" t="s">
         <v>283</v>
-      </c>
-      <c r="E2" t="s">
-        <v>284</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4397,16 +4394,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" t="s">
         <v>283</v>
-      </c>
-      <c r="E3" t="s">
-        <v>284</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4423,16 +4420,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" t="s">
         <v>283</v>
-      </c>
-      <c r="E4" t="s">
-        <v>284</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4449,16 +4446,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" t="s">
         <v>283</v>
-      </c>
-      <c r="E5" t="s">
-        <v>284</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4475,16 +4472,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" t="s">
         <v>283</v>
-      </c>
-      <c r="E6" t="s">
-        <v>284</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -4501,16 +4498,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" t="s">
         <v>283</v>
-      </c>
-      <c r="E7" t="s">
-        <v>284</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -4527,16 +4524,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" t="s">
         <v>283</v>
-      </c>
-      <c r="E8" t="s">
-        <v>284</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -4553,16 +4550,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
         <v>283</v>
-      </c>
-      <c r="E9" t="s">
-        <v>284</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -4579,16 +4576,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" t="s">
         <v>283</v>
-      </c>
-      <c r="E10" t="s">
-        <v>284</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -4605,16 +4602,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" t="s">
         <v>283</v>
-      </c>
-      <c r="E11" t="s">
-        <v>284</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -4631,16 +4628,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" t="s">
         <v>283</v>
-      </c>
-      <c r="E12" t="s">
-        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -4657,16 +4654,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" t="s">
         <v>283</v>
-      </c>
-      <c r="E13" t="s">
-        <v>284</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -4683,16 +4680,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" t="s">
         <v>283</v>
-      </c>
-      <c r="E14" t="s">
-        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -4709,16 +4706,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" t="s">
         <v>283</v>
-      </c>
-      <c r="E15" t="s">
-        <v>284</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -4735,16 +4732,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" t="s">
         <v>283</v>
-      </c>
-      <c r="E16" t="s">
-        <v>284</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -4761,16 +4758,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" t="s">
         <v>283</v>
-      </c>
-      <c r="E17" t="s">
-        <v>284</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -4787,16 +4784,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" t="s">
         <v>283</v>
-      </c>
-      <c r="E18" t="s">
-        <v>284</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -4813,16 +4810,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" t="s">
         <v>283</v>
-      </c>
-      <c r="E19" t="s">
-        <v>284</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -4839,16 +4836,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
         <v>283</v>
-      </c>
-      <c r="E20" t="s">
-        <v>284</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -4865,16 +4862,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" t="s">
         <v>283</v>
-      </c>
-      <c r="E21" t="s">
-        <v>284</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -4891,16 +4888,16 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" t="s">
         <v>283</v>
-      </c>
-      <c r="E22" t="s">
-        <v>284</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -4917,16 +4914,16 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" t="s">
         <v>283</v>
-      </c>
-      <c r="E23" t="s">
-        <v>284</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -4943,16 +4940,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" t="s">
         <v>283</v>
-      </c>
-      <c r="E24" t="s">
-        <v>284</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -4969,16 +4966,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E25" t="s">
         <v>283</v>
-      </c>
-      <c r="E25" t="s">
-        <v>284</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -4995,16 +4992,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" t="s">
         <v>283</v>
-      </c>
-      <c r="E26" t="s">
-        <v>284</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -5021,16 +5018,16 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" t="s">
         <v>283</v>
-      </c>
-      <c r="E27" t="s">
-        <v>284</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -5047,16 +5044,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" t="s">
         <v>283</v>
-      </c>
-      <c r="E28" t="s">
-        <v>284</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -5073,16 +5070,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" t="s">
         <v>283</v>
-      </c>
-      <c r="E29" t="s">
-        <v>284</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -5099,16 +5096,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" t="s">
         <v>283</v>
-      </c>
-      <c r="E30" t="s">
-        <v>284</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -5125,16 +5122,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" t="s">
         <v>283</v>
-      </c>
-      <c r="E31" t="s">
-        <v>284</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -5151,16 +5148,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" t="s">
         <v>283</v>
-      </c>
-      <c r="E32" t="s">
-        <v>284</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -5177,16 +5174,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" t="s">
         <v>283</v>
-      </c>
-      <c r="E33" t="s">
-        <v>284</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -5203,16 +5200,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" t="s">
         <v>283</v>
-      </c>
-      <c r="E34" t="s">
-        <v>284</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -5229,16 +5226,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" t="s">
         <v>283</v>
-      </c>
-      <c r="E35" t="s">
-        <v>284</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -5255,10 +5252,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E36" t="s">
         <v>283</v>
-      </c>
-      <c r="E36" t="s">
-        <v>284</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -5281,16 +5278,16 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" t="s">
         <v>283</v>
-      </c>
-      <c r="E37" t="s">
-        <v>284</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -5307,16 +5304,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" t="s">
         <v>283</v>
-      </c>
-      <c r="E38" t="s">
-        <v>284</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -5333,16 +5330,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" t="s">
         <v>283</v>
-      </c>
-      <c r="E39" t="s">
-        <v>284</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -5359,16 +5356,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>282</v>
+      </c>
+      <c r="E40" t="s">
         <v>283</v>
-      </c>
-      <c r="E40" t="s">
-        <v>284</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -5385,16 +5382,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" t="s">
         <v>283</v>
-      </c>
-      <c r="E41" t="s">
-        <v>284</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -5411,16 +5408,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" t="s">
         <v>283</v>
-      </c>
-      <c r="E42" t="s">
-        <v>284</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -5437,16 +5434,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>282</v>
+      </c>
+      <c r="E43" t="s">
         <v>283</v>
-      </c>
-      <c r="E43" t="s">
-        <v>284</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -5463,16 +5460,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" t="s">
         <v>283</v>
-      </c>
-      <c r="E44" t="s">
-        <v>284</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -5489,16 +5486,16 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E45" t="s">
         <v>283</v>
-      </c>
-      <c r="E45" t="s">
-        <v>284</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H45" t="s">
         <v>69</v>
@@ -5515,16 +5512,16 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" t="s">
         <v>283</v>
-      </c>
-      <c r="E46" t="s">
-        <v>284</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
@@ -5580,10 +5577,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
         <v>326</v>
-      </c>
-      <c r="E2" t="s">
-        <v>327</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -5606,10 +5603,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" t="s">
         <v>326</v>
-      </c>
-      <c r="E3" t="s">
-        <v>327</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -5632,10 +5629,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" t="s">
         <v>326</v>
-      </c>
-      <c r="E4" t="s">
-        <v>327</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -5658,10 +5655,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" t="s">
         <v>326</v>
-      </c>
-      <c r="E5" t="s">
-        <v>327</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -5684,10 +5681,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" t="s">
         <v>326</v>
-      </c>
-      <c r="E6" t="s">
-        <v>327</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -5710,10 +5707,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" t="s">
         <v>326</v>
-      </c>
-      <c r="E7" t="s">
-        <v>327</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -5736,10 +5733,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" t="s">
         <v>326</v>
-      </c>
-      <c r="E8" t="s">
-        <v>327</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -5762,10 +5759,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" t="s">
         <v>326</v>
-      </c>
-      <c r="E9" t="s">
-        <v>327</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -5788,10 +5785,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" t="s">
         <v>326</v>
-      </c>
-      <c r="E10" t="s">
-        <v>327</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -5814,10 +5811,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
         <v>326</v>
-      </c>
-      <c r="E11" t="s">
-        <v>327</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -5840,16 +5837,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" t="s">
         <v>326</v>
-      </c>
-      <c r="E12" t="s">
-        <v>327</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -5866,16 +5863,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" t="s">
         <v>326</v>
-      </c>
-      <c r="E13" t="s">
-        <v>327</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -5892,16 +5889,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" t="s">
         <v>326</v>
-      </c>
-      <c r="E14" t="s">
-        <v>327</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -5918,16 +5915,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" t="s">
         <v>326</v>
-      </c>
-      <c r="E15" t="s">
-        <v>327</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -5944,16 +5941,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" t="s">
         <v>326</v>
-      </c>
-      <c r="E16" t="s">
-        <v>327</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -5970,16 +5967,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" t="s">
         <v>326</v>
-      </c>
-      <c r="E17" t="s">
-        <v>327</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -5996,16 +5993,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" t="s">
         <v>326</v>
-      </c>
-      <c r="E18" t="s">
-        <v>327</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -6022,16 +6019,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" t="s">
         <v>326</v>
-      </c>
-      <c r="E19" t="s">
-        <v>327</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -6048,16 +6045,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" t="s">
         <v>326</v>
-      </c>
-      <c r="E20" t="s">
-        <v>327</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -6074,16 +6071,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" t="s">
         <v>326</v>
-      </c>
-      <c r="E21" t="s">
-        <v>327</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -6100,16 +6097,16 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" t="s">
         <v>326</v>
-      </c>
-      <c r="E22" t="s">
-        <v>327</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -6126,16 +6123,16 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" t="s">
         <v>326</v>
-      </c>
-      <c r="E23" t="s">
-        <v>327</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -6152,16 +6149,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" t="s">
         <v>326</v>
-      </c>
-      <c r="E24" t="s">
-        <v>327</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -6178,16 +6175,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" t="s">
         <v>326</v>
-      </c>
-      <c r="E25" t="s">
-        <v>327</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -6204,16 +6201,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" t="s">
         <v>326</v>
-      </c>
-      <c r="E26" t="s">
-        <v>327</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -6230,16 +6227,16 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" t="s">
         <v>326</v>
-      </c>
-      <c r="E27" t="s">
-        <v>327</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -6256,16 +6253,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" t="s">
         <v>326</v>
-      </c>
-      <c r="E28" t="s">
-        <v>327</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -6282,16 +6279,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E29" t="s">
         <v>326</v>
-      </c>
-      <c r="E29" t="s">
-        <v>327</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -6308,16 +6305,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" t="s">
         <v>326</v>
-      </c>
-      <c r="E30" t="s">
-        <v>327</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -6334,16 +6331,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" t="s">
         <v>326</v>
-      </c>
-      <c r="E31" t="s">
-        <v>327</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -6360,16 +6357,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" t="s">
         <v>326</v>
-      </c>
-      <c r="E32" t="s">
-        <v>327</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -6386,16 +6383,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" t="s">
         <v>326</v>
-      </c>
-      <c r="E33" t="s">
-        <v>327</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -6412,16 +6409,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E34" t="s">
         <v>326</v>
-      </c>
-      <c r="E34" t="s">
-        <v>327</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -6438,16 +6435,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" t="s">
         <v>326</v>
-      </c>
-      <c r="E35" t="s">
-        <v>327</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -6464,10 +6461,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E36" t="s">
         <v>326</v>
-      </c>
-      <c r="E36" t="s">
-        <v>327</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -6490,10 +6487,10 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>325</v>
+      </c>
+      <c r="E37" t="s">
         <v>326</v>
-      </c>
-      <c r="E37" t="s">
-        <v>327</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -6516,16 +6513,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>325</v>
+      </c>
+      <c r="E38" t="s">
         <v>326</v>
-      </c>
-      <c r="E38" t="s">
-        <v>327</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -6542,16 +6539,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>325</v>
+      </c>
+      <c r="E39" t="s">
         <v>326</v>
-      </c>
-      <c r="E39" t="s">
-        <v>327</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -6568,16 +6565,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" t="s">
         <v>326</v>
-      </c>
-      <c r="E40" t="s">
-        <v>327</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -6594,16 +6591,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>325</v>
+      </c>
+      <c r="E41" t="s">
         <v>326</v>
-      </c>
-      <c r="E41" t="s">
-        <v>327</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -6620,16 +6617,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" t="s">
         <v>326</v>
-      </c>
-      <c r="E42" t="s">
-        <v>327</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -6646,16 +6643,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E43" t="s">
         <v>326</v>
-      </c>
-      <c r="E43" t="s">
-        <v>327</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -6672,16 +6669,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" t="s">
         <v>326</v>
-      </c>
-      <c r="E44" t="s">
-        <v>327</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -6698,10 +6695,10 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E45" t="s">
         <v>326</v>
-      </c>
-      <c r="E45" t="s">
-        <v>327</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
@@ -6724,16 +6721,16 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" t="s">
         <v>326</v>
-      </c>
-      <c r="E46" t="s">
-        <v>327</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
@@ -6789,16 +6786,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" t="s">
         <v>344</v>
-      </c>
-      <c r="E2" t="s">
-        <v>345</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6815,16 +6812,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" t="s">
         <v>344</v>
-      </c>
-      <c r="E3" t="s">
-        <v>345</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6841,16 +6838,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" t="s">
         <v>344</v>
-      </c>
-      <c r="E4" t="s">
-        <v>345</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6867,16 +6864,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" t="s">
         <v>344</v>
-      </c>
-      <c r="E5" t="s">
-        <v>345</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6893,16 +6890,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" t="s">
         <v>344</v>
-      </c>
-      <c r="E6" t="s">
-        <v>345</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6919,16 +6916,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" t="s">
         <v>344</v>
-      </c>
-      <c r="E7" t="s">
-        <v>345</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -6945,16 +6942,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E8" t="s">
         <v>344</v>
-      </c>
-      <c r="E8" t="s">
-        <v>345</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -6971,16 +6968,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" t="s">
         <v>344</v>
-      </c>
-      <c r="E9" t="s">
-        <v>345</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -6997,16 +6994,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" t="s">
         <v>344</v>
-      </c>
-      <c r="E10" t="s">
-        <v>345</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -7023,16 +7020,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" t="s">
         <v>344</v>
-      </c>
-      <c r="E11" t="s">
-        <v>345</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -7049,16 +7046,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" t="s">
         <v>344</v>
-      </c>
-      <c r="E12" t="s">
-        <v>345</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -7075,16 +7072,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" t="s">
         <v>344</v>
-      </c>
-      <c r="E13" t="s">
-        <v>345</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -7101,16 +7098,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" t="s">
         <v>344</v>
-      </c>
-      <c r="E14" t="s">
-        <v>345</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -7127,16 +7124,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15" t="s">
         <v>344</v>
-      </c>
-      <c r="E15" t="s">
-        <v>345</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -7153,16 +7150,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" t="s">
         <v>344</v>
-      </c>
-      <c r="E16" t="s">
-        <v>345</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -7179,16 +7176,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" t="s">
         <v>344</v>
-      </c>
-      <c r="E17" t="s">
-        <v>345</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -7205,16 +7202,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" t="s">
         <v>344</v>
-      </c>
-      <c r="E18" t="s">
-        <v>345</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -7231,16 +7228,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E19" t="s">
         <v>344</v>
-      </c>
-      <c r="E19" t="s">
-        <v>345</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -7257,16 +7254,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" t="s">
         <v>344</v>
-      </c>
-      <c r="E20" t="s">
-        <v>345</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -7283,16 +7280,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E21" t="s">
         <v>344</v>
-      </c>
-      <c r="E21" t="s">
-        <v>345</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -7309,16 +7306,16 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" t="s">
         <v>344</v>
-      </c>
-      <c r="E22" t="s">
-        <v>345</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -7335,16 +7332,16 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" t="s">
         <v>344</v>
-      </c>
-      <c r="E23" t="s">
-        <v>345</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -7361,16 +7358,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" t="s">
         <v>344</v>
-      </c>
-      <c r="E24" t="s">
-        <v>345</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -7387,16 +7384,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E25" t="s">
         <v>344</v>
-      </c>
-      <c r="E25" t="s">
-        <v>345</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -7413,16 +7410,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" t="s">
         <v>344</v>
-      </c>
-      <c r="E26" t="s">
-        <v>345</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -7439,16 +7436,16 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E27" t="s">
         <v>344</v>
-      </c>
-      <c r="E27" t="s">
-        <v>345</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -7465,16 +7462,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E28" t="s">
         <v>344</v>
-      </c>
-      <c r="E28" t="s">
-        <v>345</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -7491,16 +7488,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E29" t="s">
         <v>344</v>
-      </c>
-      <c r="E29" t="s">
-        <v>345</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -7517,16 +7514,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E30" t="s">
         <v>344</v>
-      </c>
-      <c r="E30" t="s">
-        <v>345</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -7543,16 +7540,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E31" t="s">
         <v>344</v>
-      </c>
-      <c r="E31" t="s">
-        <v>345</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -7569,16 +7566,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32" t="s">
         <v>344</v>
-      </c>
-      <c r="E32" t="s">
-        <v>345</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -7595,16 +7592,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E33" t="s">
         <v>344</v>
-      </c>
-      <c r="E33" t="s">
-        <v>345</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -7621,16 +7618,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>343</v>
+      </c>
+      <c r="E34" t="s">
         <v>344</v>
-      </c>
-      <c r="E34" t="s">
-        <v>345</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -7647,16 +7644,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" t="s">
         <v>344</v>
-      </c>
-      <c r="E35" t="s">
-        <v>345</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -7673,10 +7670,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" t="s">
         <v>344</v>
-      </c>
-      <c r="E36" t="s">
-        <v>345</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -7699,16 +7696,16 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" t="s">
         <v>344</v>
-      </c>
-      <c r="E37" t="s">
-        <v>345</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -7725,16 +7722,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" t="s">
         <v>344</v>
-      </c>
-      <c r="E38" t="s">
-        <v>345</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -7751,16 +7748,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>343</v>
+      </c>
+      <c r="E39" t="s">
         <v>344</v>
-      </c>
-      <c r="E39" t="s">
-        <v>345</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -7777,16 +7774,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E40" t="s">
         <v>344</v>
-      </c>
-      <c r="E40" t="s">
-        <v>345</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -7803,16 +7800,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>343</v>
+      </c>
+      <c r="E41" t="s">
         <v>344</v>
-      </c>
-      <c r="E41" t="s">
-        <v>345</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -7829,16 +7826,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42" t="s">
         <v>344</v>
-      </c>
-      <c r="E42" t="s">
-        <v>345</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -7855,16 +7852,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>343</v>
+      </c>
+      <c r="E43" t="s">
         <v>344</v>
-      </c>
-      <c r="E43" t="s">
-        <v>345</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -7881,16 +7878,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>343</v>
+      </c>
+      <c r="E44" t="s">
         <v>344</v>
-      </c>
-      <c r="E44" t="s">
-        <v>345</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -7907,16 +7904,16 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>343</v>
+      </c>
+      <c r="E45" t="s">
         <v>344</v>
-      </c>
-      <c r="E45" t="s">
-        <v>345</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H45" t="s">
         <v>69</v>
@@ -7933,10 +7930,10 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>343</v>
+      </c>
+      <c r="E46" t="s">
         <v>344</v>
-      </c>
-      <c r="E46" t="s">
-        <v>345</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
@@ -7998,10 +7995,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" t="s">
         <v>387</v>
-      </c>
-      <c r="E2" t="s">
-        <v>388</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -8024,10 +8021,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" t="s">
         <v>387</v>
-      </c>
-      <c r="E3" t="s">
-        <v>388</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -8050,10 +8047,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" t="s">
         <v>387</v>
-      </c>
-      <c r="E4" t="s">
-        <v>388</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -8076,10 +8073,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" t="s">
         <v>387</v>
-      </c>
-      <c r="E5" t="s">
-        <v>388</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -8102,10 +8099,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" t="s">
         <v>387</v>
-      </c>
-      <c r="E6" t="s">
-        <v>388</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -8128,10 +8125,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" t="s">
         <v>387</v>
-      </c>
-      <c r="E7" t="s">
-        <v>388</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -8154,10 +8151,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" t="s">
         <v>387</v>
-      </c>
-      <c r="E8" t="s">
-        <v>388</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -8180,10 +8177,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" t="s">
         <v>387</v>
-      </c>
-      <c r="E9" t="s">
-        <v>388</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -8206,10 +8203,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" t="s">
         <v>387</v>
-      </c>
-      <c r="E10" t="s">
-        <v>388</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -8232,10 +8229,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" t="s">
         <v>387</v>
-      </c>
-      <c r="E11" t="s">
-        <v>388</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -8258,10 +8255,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" t="s">
         <v>387</v>
-      </c>
-      <c r="E12" t="s">
-        <v>388</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -8284,10 +8281,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" t="s">
         <v>387</v>
-      </c>
-      <c r="E13" t="s">
-        <v>388</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -8310,10 +8307,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" t="s">
         <v>387</v>
-      </c>
-      <c r="E14" t="s">
-        <v>388</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -8336,10 +8333,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" t="s">
         <v>387</v>
-      </c>
-      <c r="E15" t="s">
-        <v>388</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -8362,10 +8359,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" t="s">
         <v>387</v>
-      </c>
-      <c r="E16" t="s">
-        <v>388</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -8388,10 +8385,10 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
-      </c>
-      <c r="E17" t="s">
-        <v>388</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -8414,10 +8411,10 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" t="s">
         <v>387</v>
-      </c>
-      <c r="E18" t="s">
-        <v>388</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
@@ -8440,10 +8437,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" t="s">
         <v>387</v>
-      </c>
-      <c r="E19" t="s">
-        <v>388</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
@@ -8466,10 +8463,10 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" t="s">
         <v>387</v>
-      </c>
-      <c r="E20" t="s">
-        <v>388</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -8492,10 +8489,10 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" t="s">
         <v>387</v>
-      </c>
-      <c r="E21" t="s">
-        <v>388</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -8518,10 +8515,10 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" t="s">
         <v>387</v>
-      </c>
-      <c r="E22" t="s">
-        <v>388</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
@@ -8544,10 +8541,10 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" t="s">
         <v>387</v>
-      </c>
-      <c r="E23" t="s">
-        <v>388</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -8570,10 +8567,10 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" t="s">
         <v>387</v>
-      </c>
-      <c r="E24" t="s">
-        <v>388</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -8596,10 +8593,10 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" t="s">
         <v>387</v>
-      </c>
-      <c r="E25" t="s">
-        <v>388</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
@@ -8622,10 +8619,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" t="s">
         <v>387</v>
-      </c>
-      <c r="E26" t="s">
-        <v>388</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -8648,10 +8645,10 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27" t="s">
         <v>387</v>
-      </c>
-      <c r="E27" t="s">
-        <v>388</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
@@ -8674,10 +8671,10 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" t="s">
         <v>387</v>
-      </c>
-      <c r="E28" t="s">
-        <v>388</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -8700,16 +8697,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" t="s">
         <v>387</v>
-      </c>
-      <c r="E29" t="s">
-        <v>388</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -8726,16 +8723,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" t="s">
         <v>387</v>
-      </c>
-      <c r="E30" t="s">
-        <v>388</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -8752,16 +8749,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" t="s">
         <v>387</v>
-      </c>
-      <c r="E31" t="s">
-        <v>388</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -8778,16 +8775,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E32" t="s">
         <v>387</v>
-      </c>
-      <c r="E32" t="s">
-        <v>388</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -8804,16 +8801,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E33" t="s">
         <v>387</v>
-      </c>
-      <c r="E33" t="s">
-        <v>388</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -8830,16 +8827,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>386</v>
+      </c>
+      <c r="E34" t="s">
         <v>387</v>
-      </c>
-      <c r="E34" t="s">
-        <v>388</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -8856,16 +8853,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" t="s">
         <v>387</v>
-      </c>
-      <c r="E35" t="s">
-        <v>388</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -8882,10 +8879,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E36" t="s">
         <v>387</v>
-      </c>
-      <c r="E36" t="s">
-        <v>388</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -8908,16 +8905,16 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" t="s">
         <v>387</v>
-      </c>
-      <c r="E37" t="s">
-        <v>388</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -8934,16 +8931,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" t="s">
         <v>387</v>
-      </c>
-      <c r="E38" t="s">
-        <v>388</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -8960,16 +8957,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>386</v>
+      </c>
+      <c r="E39" t="s">
         <v>387</v>
-      </c>
-      <c r="E39" t="s">
-        <v>388</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -8986,16 +8983,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" t="s">
         <v>387</v>
-      </c>
-      <c r="E40" t="s">
-        <v>388</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -9012,16 +9009,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" t="s">
         <v>387</v>
-      </c>
-      <c r="E41" t="s">
-        <v>388</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -9038,16 +9035,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" t="s">
         <v>387</v>
-      </c>
-      <c r="E42" t="s">
-        <v>388</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -9064,16 +9061,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" t="s">
         <v>387</v>
-      </c>
-      <c r="E43" t="s">
-        <v>388</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -9090,16 +9087,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44" t="s">
         <v>387</v>
-      </c>
-      <c r="E44" t="s">
-        <v>388</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -9116,16 +9113,16 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" t="s">
         <v>387</v>
-      </c>
-      <c r="E45" t="s">
-        <v>388</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H45" t="s">
         <v>69</v>
@@ -9142,16 +9139,16 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" t="s">
         <v>387</v>
-      </c>
-      <c r="E46" t="s">
-        <v>388</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
@@ -9207,16 +9204,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" t="s">
         <v>406</v>
-      </c>
-      <c r="E2" t="s">
-        <v>407</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -9233,16 +9230,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" t="s">
         <v>406</v>
-      </c>
-      <c r="E3" t="s">
-        <v>407</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -9259,16 +9256,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" t="s">
         <v>406</v>
-      </c>
-      <c r="E4" t="s">
-        <v>407</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -9285,16 +9282,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" t="s">
         <v>406</v>
-      </c>
-      <c r="E5" t="s">
-        <v>407</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -9311,16 +9308,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" t="s">
         <v>406</v>
-      </c>
-      <c r="E6" t="s">
-        <v>407</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -9337,16 +9334,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" t="s">
         <v>406</v>
-      </c>
-      <c r="E7" t="s">
-        <v>407</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -9363,16 +9360,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" t="s">
         <v>406</v>
-      </c>
-      <c r="E8" t="s">
-        <v>407</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -9389,16 +9386,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" t="s">
         <v>406</v>
-      </c>
-      <c r="E9" t="s">
-        <v>407</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -9415,16 +9412,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" t="s">
         <v>406</v>
-      </c>
-      <c r="E10" t="s">
-        <v>407</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -9441,16 +9438,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" t="s">
         <v>406</v>
-      </c>
-      <c r="E11" t="s">
-        <v>407</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -9467,16 +9464,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" t="s">
         <v>406</v>
-      </c>
-      <c r="E12" t="s">
-        <v>407</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -9493,16 +9490,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="s">
         <v>406</v>
-      </c>
-      <c r="E13" t="s">
-        <v>407</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -9519,16 +9516,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" t="s">
         <v>406</v>
-      </c>
-      <c r="E14" t="s">
-        <v>407</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -9545,16 +9542,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" t="s">
         <v>406</v>
-      </c>
-      <c r="E15" t="s">
-        <v>407</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -9571,16 +9568,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" t="s">
         <v>406</v>
-      </c>
-      <c r="E16" t="s">
-        <v>407</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -9597,16 +9594,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E17" t="s">
         <v>406</v>
-      </c>
-      <c r="E17" t="s">
-        <v>407</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -9623,16 +9620,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
         <v>406</v>
-      </c>
-      <c r="E18" t="s">
-        <v>407</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -9649,16 +9646,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" t="s">
         <v>406</v>
-      </c>
-      <c r="E19" t="s">
-        <v>407</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -9675,16 +9672,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" t="s">
         <v>406</v>
-      </c>
-      <c r="E20" t="s">
-        <v>407</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -9701,16 +9698,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" t="s">
         <v>406</v>
-      </c>
-      <c r="E21" t="s">
-        <v>407</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -9727,16 +9724,16 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" t="s">
         <v>406</v>
-      </c>
-      <c r="E22" t="s">
-        <v>407</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -9753,16 +9750,16 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E23" t="s">
         <v>406</v>
-      </c>
-      <c r="E23" t="s">
-        <v>407</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -9779,16 +9776,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" t="s">
         <v>406</v>
-      </c>
-      <c r="E24" t="s">
-        <v>407</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -9805,16 +9802,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" t="s">
         <v>406</v>
-      </c>
-      <c r="E25" t="s">
-        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -9831,16 +9828,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>405</v>
+      </c>
+      <c r="E26" t="s">
         <v>406</v>
-      </c>
-      <c r="E26" t="s">
-        <v>407</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -9857,16 +9854,16 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E27" t="s">
         <v>406</v>
-      </c>
-      <c r="E27" t="s">
-        <v>407</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -9883,16 +9880,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>405</v>
+      </c>
+      <c r="E28" t="s">
         <v>406</v>
-      </c>
-      <c r="E28" t="s">
-        <v>407</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -9909,16 +9906,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" t="s">
         <v>406</v>
-      </c>
-      <c r="E29" t="s">
-        <v>407</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -9935,16 +9932,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E30" t="s">
         <v>406</v>
-      </c>
-      <c r="E30" t="s">
-        <v>407</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -9961,16 +9958,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" t="s">
         <v>406</v>
-      </c>
-      <c r="E31" t="s">
-        <v>407</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -9987,16 +9984,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" t="s">
         <v>406</v>
-      </c>
-      <c r="E32" t="s">
-        <v>407</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -10013,16 +10010,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" t="s">
         <v>406</v>
-      </c>
-      <c r="E33" t="s">
-        <v>407</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -10039,16 +10036,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>405</v>
+      </c>
+      <c r="E34" t="s">
         <v>406</v>
-      </c>
-      <c r="E34" t="s">
-        <v>407</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -10065,16 +10062,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>405</v>
+      </c>
+      <c r="E35" t="s">
         <v>406</v>
-      </c>
-      <c r="E35" t="s">
-        <v>407</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -10091,10 +10088,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>405</v>
+      </c>
+      <c r="E36" t="s">
         <v>406</v>
-      </c>
-      <c r="E36" t="s">
-        <v>407</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -10117,16 +10114,16 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>405</v>
+      </c>
+      <c r="E37" t="s">
         <v>406</v>
-      </c>
-      <c r="E37" t="s">
-        <v>407</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -10143,16 +10140,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>405</v>
+      </c>
+      <c r="E38" t="s">
         <v>406</v>
-      </c>
-      <c r="E38" t="s">
-        <v>407</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -10169,16 +10166,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>405</v>
+      </c>
+      <c r="E39" t="s">
         <v>406</v>
-      </c>
-      <c r="E39" t="s">
-        <v>407</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -10195,16 +10192,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E40" t="s">
         <v>406</v>
-      </c>
-      <c r="E40" t="s">
-        <v>407</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -10221,16 +10218,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E41" t="s">
         <v>406</v>
-      </c>
-      <c r="E41" t="s">
-        <v>407</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -10247,16 +10244,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" t="s">
         <v>406</v>
-      </c>
-      <c r="E42" t="s">
-        <v>407</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -10273,16 +10270,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>405</v>
+      </c>
+      <c r="E43" t="s">
         <v>406</v>
-      </c>
-      <c r="E43" t="s">
-        <v>407</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -10299,16 +10296,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>405</v>
+      </c>
+      <c r="E44" t="s">
         <v>406</v>
-      </c>
-      <c r="E44" t="s">
-        <v>407</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -10325,16 +10322,16 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>405</v>
+      </c>
+      <c r="E45" t="s">
         <v>406</v>
-      </c>
-      <c r="E45" t="s">
-        <v>407</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H45" t="s">
         <v>69</v>
@@ -10351,16 +10348,16 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" t="s">
         <v>406</v>
-      </c>
-      <c r="E46" t="s">
-        <v>407</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
@@ -10416,10 +10413,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" t="s">
         <v>451</v>
-      </c>
-      <c r="E2" t="s">
-        <v>452</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -10442,10 +10439,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" t="s">
         <v>451</v>
-      </c>
-      <c r="E3" t="s">
-        <v>452</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -10468,10 +10465,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E4" t="s">
         <v>451</v>
-      </c>
-      <c r="E4" t="s">
-        <v>452</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -10494,10 +10491,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" t="s">
         <v>451</v>
-      </c>
-      <c r="E5" t="s">
-        <v>452</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -10520,10 +10517,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E6" t="s">
         <v>451</v>
-      </c>
-      <c r="E6" t="s">
-        <v>452</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -10546,10 +10543,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E7" t="s">
         <v>451</v>
-      </c>
-      <c r="E7" t="s">
-        <v>452</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -10572,10 +10569,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" t="s">
         <v>451</v>
-      </c>
-      <c r="E8" t="s">
-        <v>452</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -10598,10 +10595,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" t="s">
         <v>451</v>
-      </c>
-      <c r="E9" t="s">
-        <v>452</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -10624,10 +10621,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" t="s">
         <v>451</v>
-      </c>
-      <c r="E10" t="s">
-        <v>452</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -10650,10 +10647,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" t="s">
         <v>451</v>
-      </c>
-      <c r="E11" t="s">
-        <v>452</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -10676,10 +10673,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E12" t="s">
         <v>451</v>
-      </c>
-      <c r="E12" t="s">
-        <v>452</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -10702,10 +10699,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" t="s">
         <v>451</v>
-      </c>
-      <c r="E13" t="s">
-        <v>452</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -10728,16 +10725,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" t="s">
         <v>451</v>
-      </c>
-      <c r="E14" t="s">
-        <v>452</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -10754,16 +10751,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E15" t="s">
         <v>451</v>
-      </c>
-      <c r="E15" t="s">
-        <v>452</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -10780,16 +10777,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>450</v>
+      </c>
+      <c r="E16" t="s">
         <v>451</v>
-      </c>
-      <c r="E16" t="s">
-        <v>452</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -10806,16 +10803,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" t="s">
         <v>451</v>
-      </c>
-      <c r="E17" t="s">
-        <v>452</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -10832,16 +10829,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>450</v>
+      </c>
+      <c r="E18" t="s">
         <v>451</v>
-      </c>
-      <c r="E18" t="s">
-        <v>452</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -10858,16 +10855,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>450</v>
+      </c>
+      <c r="E19" t="s">
         <v>451</v>
-      </c>
-      <c r="E19" t="s">
-        <v>452</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -10884,16 +10881,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" t="s">
         <v>451</v>
-      </c>
-      <c r="E20" t="s">
-        <v>452</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -10910,16 +10907,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>450</v>
+      </c>
+      <c r="E21" t="s">
         <v>451</v>
-      </c>
-      <c r="E21" t="s">
-        <v>452</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -10936,16 +10933,16 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" t="s">
         <v>451</v>
-      </c>
-      <c r="E22" t="s">
-        <v>452</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -10962,16 +10959,16 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>450</v>
+      </c>
+      <c r="E23" t="s">
         <v>451</v>
-      </c>
-      <c r="E23" t="s">
-        <v>452</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -10988,16 +10985,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E24" t="s">
         <v>451</v>
-      </c>
-      <c r="E24" t="s">
-        <v>452</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -11014,16 +11011,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>450</v>
+      </c>
+      <c r="E25" t="s">
         <v>451</v>
-      </c>
-      <c r="E25" t="s">
-        <v>452</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -11040,16 +11037,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>450</v>
+      </c>
+      <c r="E26" t="s">
         <v>451</v>
-      </c>
-      <c r="E26" t="s">
-        <v>452</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -11066,16 +11063,16 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" t="s">
         <v>451</v>
-      </c>
-      <c r="E27" t="s">
-        <v>452</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -11092,16 +11089,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>450</v>
+      </c>
+      <c r="E28" t="s">
         <v>451</v>
-      </c>
-      <c r="E28" t="s">
-        <v>452</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -11118,16 +11115,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>450</v>
+      </c>
+      <c r="E29" t="s">
         <v>451</v>
-      </c>
-      <c r="E29" t="s">
-        <v>452</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -11144,16 +11141,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" t="s">
         <v>451</v>
-      </c>
-      <c r="E30" t="s">
-        <v>452</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -11170,16 +11167,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>450</v>
+      </c>
+      <c r="E31" t="s">
         <v>451</v>
-      </c>
-      <c r="E31" t="s">
-        <v>452</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -11196,16 +11193,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" t="s">
         <v>451</v>
-      </c>
-      <c r="E32" t="s">
-        <v>452</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -11222,16 +11219,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>450</v>
+      </c>
+      <c r="E33" t="s">
         <v>451</v>
-      </c>
-      <c r="E33" t="s">
-        <v>452</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -11248,16 +11245,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" t="s">
         <v>451</v>
-      </c>
-      <c r="E34" t="s">
-        <v>452</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -11274,16 +11271,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>450</v>
+      </c>
+      <c r="E35" t="s">
         <v>451</v>
-      </c>
-      <c r="E35" t="s">
-        <v>452</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -11300,10 +11297,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>450</v>
+      </c>
+      <c r="E36" t="s">
         <v>451</v>
-      </c>
-      <c r="E36" t="s">
-        <v>452</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -11326,16 +11323,16 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>450</v>
+      </c>
+      <c r="E37" t="s">
         <v>451</v>
-      </c>
-      <c r="E37" t="s">
-        <v>452</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -11352,16 +11349,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>450</v>
+      </c>
+      <c r="E38" t="s">
         <v>451</v>
-      </c>
-      <c r="E38" t="s">
-        <v>452</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -11378,16 +11375,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>450</v>
+      </c>
+      <c r="E39" t="s">
         <v>451</v>
-      </c>
-      <c r="E39" t="s">
-        <v>452</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -11404,16 +11401,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>450</v>
+      </c>
+      <c r="E40" t="s">
         <v>451</v>
-      </c>
-      <c r="E40" t="s">
-        <v>452</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -11430,16 +11427,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>450</v>
+      </c>
+      <c r="E41" t="s">
         <v>451</v>
-      </c>
-      <c r="E41" t="s">
-        <v>452</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -11456,16 +11453,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>450</v>
+      </c>
+      <c r="E42" t="s">
         <v>451</v>
-      </c>
-      <c r="E42" t="s">
-        <v>452</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -11482,16 +11479,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>450</v>
+      </c>
+      <c r="E43" t="s">
         <v>451</v>
-      </c>
-      <c r="E43" t="s">
-        <v>452</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -11508,16 +11505,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>450</v>
+      </c>
+      <c r="E44" t="s">
         <v>451</v>
-      </c>
-      <c r="E44" t="s">
-        <v>452</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -11534,16 +11531,16 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>450</v>
+      </c>
+      <c r="E45" t="s">
         <v>451</v>
-      </c>
-      <c r="E45" t="s">
-        <v>452</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H45" t="s">
         <v>69</v>
@@ -11560,16 +11557,16 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>450</v>
+      </c>
+      <c r="E46" t="s">
         <v>451</v>
-      </c>
-      <c r="E46" t="s">
-        <v>452</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
@@ -11625,10 +11622,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E2" t="s">
         <v>470</v>
-      </c>
-      <c r="E2" t="s">
-        <v>471</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -11651,10 +11648,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E3" t="s">
         <v>470</v>
-      </c>
-      <c r="E3" t="s">
-        <v>471</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -11677,10 +11674,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E4" t="s">
         <v>470</v>
-      </c>
-      <c r="E4" t="s">
-        <v>471</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -11703,10 +11700,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" t="s">
         <v>470</v>
-      </c>
-      <c r="E5" t="s">
-        <v>471</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -11729,10 +11726,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E6" t="s">
         <v>470</v>
-      </c>
-      <c r="E6" t="s">
-        <v>471</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -11755,16 +11752,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E7" t="s">
         <v>470</v>
-      </c>
-      <c r="E7" t="s">
-        <v>471</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -11781,16 +11778,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E8" t="s">
         <v>470</v>
-      </c>
-      <c r="E8" t="s">
-        <v>471</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -11807,16 +11804,16 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E9" t="s">
         <v>470</v>
-      </c>
-      <c r="E9" t="s">
-        <v>471</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -11833,16 +11830,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" t="s">
         <v>470</v>
-      </c>
-      <c r="E10" t="s">
-        <v>471</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -11859,16 +11856,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E11" t="s">
         <v>470</v>
-      </c>
-      <c r="E11" t="s">
-        <v>471</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -11885,16 +11882,16 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>469</v>
+      </c>
+      <c r="E12" t="s">
         <v>470</v>
-      </c>
-      <c r="E12" t="s">
-        <v>471</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -11911,16 +11908,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>469</v>
+      </c>
+      <c r="E13" t="s">
         <v>470</v>
-      </c>
-      <c r="E13" t="s">
-        <v>471</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -11937,16 +11934,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>469</v>
+      </c>
+      <c r="E14" t="s">
         <v>470</v>
-      </c>
-      <c r="E14" t="s">
-        <v>471</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -11963,10 +11960,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" t="s">
         <v>470</v>
-      </c>
-      <c r="E15" t="s">
-        <v>471</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -11989,16 +11986,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>469</v>
+      </c>
+      <c r="E16" t="s">
         <v>470</v>
-      </c>
-      <c r="E16" t="s">
-        <v>471</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -12015,16 +12012,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" t="s">
         <v>470</v>
-      </c>
-      <c r="E17" t="s">
-        <v>471</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -12041,16 +12038,16 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>469</v>
+      </c>
+      <c r="E18" t="s">
         <v>470</v>
-      </c>
-      <c r="E18" t="s">
-        <v>471</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -12067,16 +12064,16 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>469</v>
+      </c>
+      <c r="E19" t="s">
         <v>470</v>
-      </c>
-      <c r="E19" t="s">
-        <v>471</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -12093,16 +12090,16 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>469</v>
+      </c>
+      <c r="E20" t="s">
         <v>470</v>
-      </c>
-      <c r="E20" t="s">
-        <v>471</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -12119,16 +12116,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
+        <v>469</v>
+      </c>
+      <c r="E21" t="s">
         <v>470</v>
-      </c>
-      <c r="E21" t="s">
-        <v>471</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -12145,16 +12142,16 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E22" t="s">
         <v>470</v>
-      </c>
-      <c r="E22" t="s">
-        <v>471</v>
       </c>
       <c r="F22" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -12171,16 +12168,16 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" t="s">
         <v>470</v>
-      </c>
-      <c r="E23" t="s">
-        <v>471</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -12197,16 +12194,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E24" t="s">
         <v>470</v>
-      </c>
-      <c r="E24" t="s">
-        <v>471</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -12223,16 +12220,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
+        <v>469</v>
+      </c>
+      <c r="E25" t="s">
         <v>470</v>
-      </c>
-      <c r="E25" t="s">
-        <v>471</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -12249,16 +12246,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
+        <v>469</v>
+      </c>
+      <c r="E26" t="s">
         <v>470</v>
-      </c>
-      <c r="E26" t="s">
-        <v>471</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -12275,16 +12272,16 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
+        <v>469</v>
+      </c>
+      <c r="E27" t="s">
         <v>470</v>
-      </c>
-      <c r="E27" t="s">
-        <v>471</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -12301,16 +12298,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" t="s">
         <v>470</v>
-      </c>
-      <c r="E28" t="s">
-        <v>471</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -12327,16 +12324,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E29" t="s">
         <v>470</v>
-      </c>
-      <c r="E29" t="s">
-        <v>471</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -12353,16 +12350,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
+        <v>469</v>
+      </c>
+      <c r="E30" t="s">
         <v>470</v>
-      </c>
-      <c r="E30" t="s">
-        <v>471</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -12379,16 +12376,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
+        <v>469</v>
+      </c>
+      <c r="E31" t="s">
         <v>470</v>
-      </c>
-      <c r="E31" t="s">
-        <v>471</v>
       </c>
       <c r="F31" t="s">
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -12405,16 +12402,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E32" t="s">
         <v>470</v>
-      </c>
-      <c r="E32" t="s">
-        <v>471</v>
       </c>
       <c r="F32" t="s">
         <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -12431,16 +12428,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
+        <v>469</v>
+      </c>
+      <c r="E33" t="s">
         <v>470</v>
-      </c>
-      <c r="E33" t="s">
-        <v>471</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -12457,16 +12454,16 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
+        <v>469</v>
+      </c>
+      <c r="E34" t="s">
         <v>470</v>
-      </c>
-      <c r="E34" t="s">
-        <v>471</v>
       </c>
       <c r="F34" t="s">
         <v>53</v>
       </c>
       <c r="G34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -12483,16 +12480,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" t="s">
         <v>470</v>
-      </c>
-      <c r="E35" t="s">
-        <v>471</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -12509,10 +12506,10 @@
         <v>59</v>
       </c>
       <c r="D36" t="s">
+        <v>469</v>
+      </c>
+      <c r="E36" t="s">
         <v>470</v>
-      </c>
-      <c r="E36" t="s">
-        <v>471</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -12535,10 +12532,10 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
+        <v>469</v>
+      </c>
+      <c r="E37" t="s">
         <v>470</v>
-      </c>
-      <c r="E37" t="s">
-        <v>471</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -12561,16 +12558,16 @@
         <v>59</v>
       </c>
       <c r="D38" t="s">
+        <v>469</v>
+      </c>
+      <c r="E38" t="s">
         <v>470</v>
-      </c>
-      <c r="E38" t="s">
-        <v>471</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -12587,16 +12584,16 @@
         <v>59</v>
       </c>
       <c r="D39" t="s">
+        <v>469</v>
+      </c>
+      <c r="E39" t="s">
         <v>470</v>
-      </c>
-      <c r="E39" t="s">
-        <v>471</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -12613,16 +12610,16 @@
         <v>59</v>
       </c>
       <c r="D40" t="s">
+        <v>469</v>
+      </c>
+      <c r="E40" t="s">
         <v>470</v>
-      </c>
-      <c r="E40" t="s">
-        <v>471</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -12639,16 +12636,16 @@
         <v>59</v>
       </c>
       <c r="D41" t="s">
+        <v>469</v>
+      </c>
+      <c r="E41" t="s">
         <v>470</v>
-      </c>
-      <c r="E41" t="s">
-        <v>471</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -12665,16 +12662,16 @@
         <v>59</v>
       </c>
       <c r="D42" t="s">
+        <v>469</v>
+      </c>
+      <c r="E42" t="s">
         <v>470</v>
-      </c>
-      <c r="E42" t="s">
-        <v>471</v>
       </c>
       <c r="F42" t="s">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -12691,16 +12688,16 @@
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>469</v>
+      </c>
+      <c r="E43" t="s">
         <v>470</v>
-      </c>
-      <c r="E43" t="s">
-        <v>471</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -12717,16 +12714,16 @@
         <v>59</v>
       </c>
       <c r="D44" t="s">
+        <v>469</v>
+      </c>
+      <c r="E44" t="s">
         <v>470</v>
-      </c>
-      <c r="E44" t="s">
-        <v>471</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -12743,16 +12740,16 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
+        <v>469</v>
+      </c>
+      <c r="E45" t="s">
         <v>470</v>
-      </c>
-      <c r="E45" t="s">
-        <v>471</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H45" t="s">
         <v>69</v>
@@ -12769,16 +12766,16 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>469</v>
+      </c>
+      <c r="E46" t="s">
         <v>470</v>
-      </c>
-      <c r="E46" t="s">
-        <v>471</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
@@ -12834,16 +12831,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" t="s">
         <v>505</v>
-      </c>
-      <c r="E2" t="s">
-        <v>506</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -12860,16 +12857,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" t="s">
         <v>505</v>
-      </c>
-      <c r="E3" t="s">
-        <v>506</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -12886,16 +12883,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E4" t="s">
         <v>505</v>
-      </c>
-      <c r="E4" t="s">
-        <v>506</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -12912,16 +12909,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E5" t="s">
         <v>505</v>
-      </c>
-      <c r="E5" t="s">
-        <v>506</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -12938,16 +12935,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" t="s">
         <v>505</v>
-      </c>
-      <c r="E6" t="s">
-        <v>506</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -12964,16 +12961,16 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" t="s">
         <v>505</v>
-      </c>
-      <c r="E7" t="s">
-        <v>506</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -12990,16 +12987,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E8" t="s">
         <v>505</v>
-      </c>
-      <c r="E8" t="s">
-        <v>506</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -13016,10 +13013,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E9" t="s">
         <v>505</v>
-      </c>
-      <c r="E9" t="s">
-        <v>506</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -13042,16 +13039,16 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E10" t="s">
         <v>505</v>
-      </c>
-      <c r="E10" t="s">
-        <v>506</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
@@ -13068,16 +13065,16 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E11" t="s">
         <v>505</v>
-      </c>
-      <c r="E11" t="s">
-        <v>506</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -13094,16 +13091,16 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" t="s">
         <v>505</v>
-      </c>
-      <c r="E12" t="s">
-        <v>506</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -13120,16 +13117,16 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E13" t="s">
         <v>505</v>
-      </c>
-      <c r="E13" t="s">
-        <v>506</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -13146,16 +13143,16 @@
         <v>59</v>
       </c>
       <c r="D14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" t="s">
         <v>505</v>
-      </c>
-      <c r="E14" t="s">
-        <v>506</v>
       </c>
       <c r="F14" t="s">
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
@@ -13172,16 +13169,16 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E15" t="s">
         <v>505</v>
-      </c>
-      <c r="E15" t="s">
-        <v>506</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -13198,16 +13195,16 @@
         <v>59</v>
       </c>
       <c r="D16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E16" t="s">
         <v>505</v>
-      </c>
-      <c r="E16" t="s">
-        <v>506</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
@@ -13224,16 +13221,16 @@
         <v>59</v>
       </c>
       <c r="D17" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" t="s">
         <v>505</v>
-      </c>
-      <c r="E17" t="s">
-        <v>506</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -13250,10 +13247,10 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
+        <v>504</v>
+      </c>
+      <c r="E18" t="s">
         <v>505</v>
-      </c>
-      <c r="E18" t="s">
-        <v>506</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -13276,10 +13273,10 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
+        <v>504</v>
+      </c>
+      <c r="E19" t="s">
         <v>505</v>
-      </c>
-      <c r="E19" t="s">
-        <v>506</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
@@ -21969,7 +21966,7 @@
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -21995,7 +21992,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -22021,7 +22018,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -22047,7 +22044,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -22099,7 +22096,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -22125,7 +22122,7 @@
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -22151,7 +22148,7 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -22203,7 +22200,7 @@
         <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
         <v>69</v>
